--- a/Team-3/Compare-Genie/User Stories/Compare-genie-UserStories.xlsx
+++ b/Team-3/Compare-Genie/User Stories/Compare-genie-UserStories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SL No</t>
   </si>
@@ -34,65 +34,71 @@
     <t>AS A Buyer I Want to know the object category So THAT I Can compare Products on similar grounds.</t>
   </si>
   <si>
-    <t>AS A Buyer I Should be able to list out similar parameters of an object So THAT I Can compare products based on common parameters.</t>
-  </si>
-  <si>
-    <t>AS A Buyer I Should be able to list out different parameters of an object So THAT I Can compare products based on different parameters.</t>
-  </si>
-  <si>
-    <t>AS A Buyer I Should be able to list the main parameters of an object.</t>
-  </si>
-  <si>
-    <t>AS A Buyer I Should be able to list the sub parameters of an object.</t>
-  </si>
-  <si>
     <t>AS A Buyer I Should be able to add the value to the main and sub parameters of an object So THAT users can compare products based on values.</t>
   </si>
   <si>
-    <t>AS A Buyer I Should be able to give unit of measurement to each parameter of an object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS A Buyer I Should be able to give priority option, So THAT comparison can be made according to his priority. </t>
-  </si>
-  <si>
-    <t>AS A Buyer I Should be able to set  data type to enter positive value So THAT entry of negative value is avoided.</t>
-  </si>
-  <si>
     <t>As A Buyer I want to give feedbacks for the products So THAT others can get an idea about the product.</t>
   </si>
   <si>
-    <t>As A Buyer I Should be able to give a rating on any category product So THAT I can compare products based on judgment.</t>
-  </si>
-  <si>
     <t>As A Buyer I Should be able to get suggestions about the object which is related to same object So THAT I can compare products.</t>
   </si>
   <si>
     <t>As A Buyer I Should be able to get top rated product list So THAT I can get best product.</t>
   </si>
   <si>
-    <t>AS A Buyer I Should be able to specify number of iterations to compare So THAT I can compare products multiple times using different parameters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS A Buyer I Should be able to provide list of choice to parameters to select So THAT I can avoid irrelevant entry by the user.  </t>
-  </si>
-  <si>
-    <t>AS A Buyer I Should be able to decide data type of the parameters of an object So THAT I Can compare various products.</t>
-  </si>
-  <si>
-    <t>AS A Buyer I Should be able to fix the range for necessary parameter of an object So THAT user entry will be within the range.</t>
-  </si>
-  <si>
     <t xml:space="preserve">AS A Buyer I Want to select any product from any category So THAT I can compare various products from different category. </t>
   </si>
   <si>
     <t>AS A Buyer I Want to compare more than two products So THAT I can compare more products at a time.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to view similar parameters of an object So THAT I Can compare products based on common parameters.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to view different parameters of an object So THAT I Can compare products based on different parameters.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to view the main parameters of an object.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to view the sub parameters of an object.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to get suggestion on data types of the parameters of an object So THAT I Can compare various products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS A Buyer I Should be able to get list of choices of parameters to select So THAT I can avoid irrelevant entry by the user.  </t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to set the range for necessary parameter of an object So THAT user entry will be within the range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS A Buyer I Should be able to get priority option, So THAT comparison can be made according to his priority. </t>
+  </si>
+  <si>
+    <t>As A Buyer I Should be able to give a rating on any category product So THAT I can compare products based on opinion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS A Buyer I Should be able to view previous comparison history So THAT it helps further comparison. </t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to get unit of measurement to each parameter of an object.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to get datatype to enter positive value So THAT entry of negative value is avoided.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to search and select any object to compare So THAT I can compare all variety of objects.</t>
+  </si>
+  <si>
+    <t>AS A Buyer I Should be able to compare products in number of iterations So THAT comparison can be done multiple times using different parameters.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,8 +118,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +149,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -145,19 +168,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +395,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -395,32 +422,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -428,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -436,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -444,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -452,15 +480,15 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -468,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -476,15 +504,15 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -492,23 +520,23 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -516,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -524,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
@@ -532,7 +560,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -540,15 +568,15 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
+      <c r="C21" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -556,10 +584,31 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="C25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>